--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.040221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.040221.xlsx_with_dialog_acts.xlsx
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1373,12 +1373,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1737,12 +1737,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2313,12 +2313,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3217,12 +3217,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3437,12 +3437,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3545,12 +3545,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3581,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3653,12 +3653,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4089,12 +4089,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4233,12 +4233,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4449,12 +4449,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4665,12 +4665,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5245,12 +5245,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5317,12 +5317,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5461,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5789,12 +5789,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5861,12 +5861,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5897,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6113,12 +6113,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6437,12 +6437,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6833,12 +6833,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7121,12 +7121,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7229,12 +7229,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7265,12 +7265,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7373,12 +7373,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7589,12 +7589,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7805,12 +7805,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8417,12 +8417,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8637,12 +8637,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9105,12 +9105,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9249,12 +9249,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10373,12 +10373,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10593,12 +10593,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
